--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1167"/>
+  <dimension ref="A1:I1168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43103,6 +43103,43 @@
         </is>
       </c>
     </row>
+    <row r="1168">
+      <c r="A1168" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1168" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1168" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1168"/>
+  <dimension ref="A1:I1169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43140,6 +43140,43 @@
         </is>
       </c>
     </row>
+    <row r="1169">
+      <c r="A1169" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1169" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1169" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1169"/>
+  <dimension ref="A1:I1170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43177,6 +43177,43 @@
         </is>
       </c>
     </row>
+    <row r="1170">
+      <c r="A1170" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1170" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1170" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1170"/>
+  <dimension ref="A1:I1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43214,6 +43214,43 @@
         </is>
       </c>
     </row>
+    <row r="1171">
+      <c r="A1171" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1171" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1171" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1171"/>
+  <dimension ref="A1:I1172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43251,6 +43251,43 @@
         </is>
       </c>
     </row>
+    <row r="1172">
+      <c r="A1172" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1172" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1172" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1172"/>
+  <dimension ref="A1:I1173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,43 @@
         </is>
       </c>
     </row>
+    <row r="1173">
+      <c r="A1173" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1173" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1173" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,43 @@
         </is>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1174" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,43 @@
         </is>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1175" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,43 @@
         </is>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1176" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43436,6 +43436,43 @@
         </is>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1177" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,80 @@
         </is>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1178" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43547,6 +43547,78 @@
         </is>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,43 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1182" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43656,6 +43656,43 @@
         </is>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1183" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,43 @@
         </is>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1184" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43730,6 +43730,43 @@
         </is>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1185" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43767,6 +43767,80 @@
         </is>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1186" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1187" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43841,6 +43841,41 @@
         </is>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43876,6 +43876,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1665"/>
+  <dimension ref="A1:I1666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60573,6 +60573,41 @@
         </is>
       </c>
     </row>
+    <row r="1666">
+      <c r="A1666" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1666" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1666" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1666"/>
+  <dimension ref="A1:I1667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60608,6 +60608,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1667">
+      <c r="A1667" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1667" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1667" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1667"/>
+  <dimension ref="A1:I1668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60643,6 +60643,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1668">
+      <c r="A1668" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1668" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1668" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1668"/>
+  <dimension ref="A1:I1669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60680,6 +60680,43 @@
         </is>
       </c>
     </row>
+    <row r="1669">
+      <c r="A1669" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1669" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1669" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I1669" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1669"/>
+  <dimension ref="A1:I1670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60717,6 +60717,41 @@
         </is>
       </c>
     </row>
+    <row r="1670">
+      <c r="A1670" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1670" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1670" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>3500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1670"/>
+  <dimension ref="A1:I1671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60752,6 +60752,43 @@
         <v>3500</v>
       </c>
     </row>
+    <row r="1671">
+      <c r="A1671" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1671" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1671" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1671" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1671"/>
+  <dimension ref="A1:I1672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60789,6 +60789,43 @@
         </is>
       </c>
     </row>
+    <row r="1672">
+      <c r="A1672" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1672" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1672" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1672" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1672"/>
+  <dimension ref="A1:I1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60826,6 +60826,43 @@
         </is>
       </c>
     </row>
+    <row r="1673">
+      <c r="A1673" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1673" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1673" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1673" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1673"/>
+  <dimension ref="A1:I1674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60863,6 +60863,43 @@
         </is>
       </c>
     </row>
+    <row r="1674">
+      <c r="A1674" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1674" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1674" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I1674" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1674"/>
+  <dimension ref="A1:I1675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60900,6 +60900,41 @@
         </is>
       </c>
     </row>
+    <row r="1675">
+      <c r="A1675" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1675" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1675" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1675"/>
+  <dimension ref="A1:I1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60935,6 +60935,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1676">
+      <c r="A1676" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1676" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1676" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6149.xlsx
+++ b/data/6149.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1676"/>
+  <dimension ref="A1:I1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60970,6 +60970,43 @@
         <v>900</v>
       </c>
     </row>
+    <row r="1677">
+      <c r="A1677" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="D1677" t="inlineStr">
+        <is>
+          <t>METROD</t>
+        </is>
+      </c>
+      <c r="E1677" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1677" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
